--- a/100to105v1.xlsx
+++ b/100to105v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>-</t>
   </si>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>中東</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>馬來西亞</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -140,14 +136,6 @@
   </si>
   <si>
     <t>英國</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>奧地利</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>希臘</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1088,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1319,49 +1307,49 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>10224</v>
+        <v>66516</v>
       </c>
       <c r="D5" s="2">
-        <v>8422</v>
+        <v>75869</v>
       </c>
       <c r="E5" s="2">
-        <v>12838</v>
+        <v>105246</v>
       </c>
       <c r="F5" s="2">
-        <v>13262</v>
+        <v>123961</v>
       </c>
       <c r="G5" s="2">
-        <v>12687</v>
+        <v>132996</v>
       </c>
       <c r="H5" s="2">
-        <v>13446</v>
+        <v>159839</v>
       </c>
       <c r="I5" s="2">
-        <v>12356</v>
+        <v>171630</v>
       </c>
       <c r="J5" s="2">
-        <v>12182</v>
+        <v>184577</v>
       </c>
       <c r="K5" s="2">
-        <v>13349</v>
+        <v>311349</v>
       </c>
       <c r="L5" s="2">
-        <v>13361</v>
+        <v>331744</v>
       </c>
       <c r="M5" s="2">
-        <v>12608</v>
+        <v>367817</v>
       </c>
       <c r="N5" s="2">
-        <v>13758</v>
+        <v>424053</v>
       </c>
       <c r="O5" s="2">
-        <v>15734</v>
+        <v>464518</v>
       </c>
       <c r="P5" s="2">
-        <v>16800</v>
+        <v>458401</v>
       </c>
       <c r="Q5" s="2">
-        <v>17453</v>
+        <v>500496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1372,49 +1360,49 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>66516</v>
+        <v>80028</v>
       </c>
       <c r="D6" s="2">
-        <v>75869</v>
+        <v>66629</v>
       </c>
       <c r="E6" s="2">
-        <v>105246</v>
+        <v>101379</v>
       </c>
       <c r="F6" s="2">
-        <v>123961</v>
+        <v>146621</v>
       </c>
       <c r="G6" s="2">
-        <v>132996</v>
+        <v>163169</v>
       </c>
       <c r="H6" s="2">
-        <v>159839</v>
+        <v>184303</v>
       </c>
       <c r="I6" s="2">
-        <v>171630</v>
+        <v>189330</v>
       </c>
       <c r="J6" s="2">
-        <v>184577</v>
+        <v>180819</v>
       </c>
       <c r="K6" s="2">
-        <v>311349</v>
+        <v>223401</v>
       </c>
       <c r="L6" s="2">
-        <v>331744</v>
+        <v>273327</v>
       </c>
       <c r="M6" s="2">
-        <v>367817</v>
+        <v>297624</v>
       </c>
       <c r="N6" s="2">
-        <v>424053</v>
+        <v>330293</v>
       </c>
       <c r="O6" s="2">
-        <v>464518</v>
+        <v>341857</v>
       </c>
       <c r="P6" s="2">
-        <v>458401</v>
+        <v>354767</v>
       </c>
       <c r="Q6" s="2">
-        <v>500496</v>
+        <v>371663</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1425,49 +1413,49 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>80028</v>
+        <v>92076</v>
       </c>
       <c r="D7" s="2">
-        <v>66629</v>
+        <v>39826</v>
       </c>
       <c r="E7" s="2">
-        <v>101379</v>
+        <v>46713</v>
       </c>
       <c r="F7" s="2">
-        <v>146621</v>
+        <v>91356</v>
       </c>
       <c r="G7" s="2">
-        <v>163169</v>
+        <v>93847</v>
       </c>
       <c r="H7" s="2">
-        <v>184303</v>
+        <v>98692</v>
       </c>
       <c r="I7" s="2">
-        <v>189330</v>
+        <v>113099</v>
       </c>
       <c r="J7" s="2">
-        <v>180819</v>
+        <v>113038</v>
       </c>
       <c r="K7" s="2">
-        <v>223401</v>
+        <v>133491</v>
       </c>
       <c r="L7" s="2">
-        <v>273327</v>
+        <v>161685</v>
       </c>
       <c r="M7" s="2">
-        <v>297624</v>
+        <v>169136</v>
       </c>
       <c r="N7" s="2">
-        <v>330293</v>
+        <v>176919</v>
       </c>
       <c r="O7" s="2">
-        <v>341857</v>
+        <v>186558</v>
       </c>
       <c r="P7" s="2">
-        <v>354767</v>
+        <v>181734</v>
       </c>
       <c r="Q7" s="2">
-        <v>371663</v>
+        <v>192053</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1478,49 +1466,49 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>92076</v>
+        <v>70501</v>
       </c>
       <c r="D8" s="2">
-        <v>39826</v>
+        <v>77570</v>
       </c>
       <c r="E8" s="2">
-        <v>46713</v>
+        <v>84219</v>
       </c>
       <c r="F8" s="2">
-        <v>91356</v>
+        <v>89263</v>
       </c>
       <c r="G8" s="2">
-        <v>93847</v>
+        <v>77596</v>
       </c>
       <c r="H8" s="2">
-        <v>98692</v>
+        <v>82366</v>
       </c>
       <c r="I8" s="2">
-        <v>113099</v>
+        <v>85466</v>
       </c>
       <c r="J8" s="2">
-        <v>113038</v>
+        <v>78765</v>
       </c>
       <c r="K8" s="2">
-        <v>133491</v>
+        <v>92525</v>
       </c>
       <c r="L8" s="2">
-        <v>161685</v>
+        <v>102417</v>
       </c>
       <c r="M8" s="2">
-        <v>169136</v>
+        <v>105525</v>
       </c>
       <c r="N8" s="2">
-        <v>176919</v>
+        <v>101594</v>
       </c>
       <c r="O8" s="2">
-        <v>186558</v>
+        <v>136998</v>
       </c>
       <c r="P8" s="2">
-        <v>181734</v>
+        <v>139758</v>
       </c>
       <c r="Q8" s="2">
-        <v>192053</v>
+        <v>171816</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1531,49 +1519,49 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>70501</v>
+        <v>116394</v>
       </c>
       <c r="D9" s="2">
-        <v>77570</v>
+        <v>98056</v>
       </c>
       <c r="E9" s="2">
-        <v>84219</v>
+        <v>101784</v>
       </c>
       <c r="F9" s="2">
-        <v>89263</v>
+        <v>92342</v>
       </c>
       <c r="G9" s="2">
-        <v>77596</v>
+        <v>94191</v>
       </c>
       <c r="H9" s="2">
-        <v>82366</v>
+        <v>88947</v>
       </c>
       <c r="I9" s="2">
-        <v>85466</v>
+        <v>83968</v>
       </c>
       <c r="J9" s="2">
-        <v>78765</v>
+        <v>80712</v>
       </c>
       <c r="K9" s="2">
-        <v>92525</v>
+        <v>97678</v>
       </c>
       <c r="L9" s="2">
-        <v>102417</v>
+        <v>101088</v>
       </c>
       <c r="M9" s="2">
-        <v>105525</v>
+        <v>95687</v>
       </c>
       <c r="N9" s="2">
-        <v>101594</v>
+        <v>104182</v>
       </c>
       <c r="O9" s="2">
-        <v>136998</v>
+        <v>102457</v>
       </c>
       <c r="P9" s="2">
-        <v>139758</v>
+        <v>121337</v>
       </c>
       <c r="Q9" s="2">
-        <v>171816</v>
+        <v>193200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1584,102 +1572,102 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>116394</v>
+        <v>110650</v>
       </c>
       <c r="D10" s="2">
-        <v>98056</v>
+        <v>98390</v>
       </c>
       <c r="E10" s="2">
-        <v>101784</v>
+        <v>103089</v>
       </c>
       <c r="F10" s="2">
-        <v>92342</v>
+        <v>93568</v>
       </c>
       <c r="G10" s="2">
-        <v>94191</v>
-      </c>
-      <c r="H10" s="2">
-        <v>88947</v>
-      </c>
-      <c r="I10" s="2">
-        <v>83968</v>
-      </c>
-      <c r="J10" s="2">
-        <v>80712</v>
+        <v>95643</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>97678</v>
+        <v>82134</v>
       </c>
       <c r="L10" s="2">
-        <v>101088</v>
+        <v>95921</v>
       </c>
       <c r="M10" s="2">
-        <v>95687</v>
+        <v>87886</v>
       </c>
       <c r="N10" s="2">
-        <v>104182</v>
+        <v>118391</v>
       </c>
       <c r="O10" s="2">
-        <v>102457</v>
+        <v>135173</v>
       </c>
       <c r="P10" s="2">
-        <v>121337</v>
+        <v>143930</v>
       </c>
       <c r="Q10" s="2">
-        <v>193200</v>
+        <v>194323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>110650</v>
+        <v>61779</v>
       </c>
       <c r="D11" s="2">
-        <v>98390</v>
+        <v>50766</v>
       </c>
       <c r="E11" s="2">
-        <v>103089</v>
+        <v>71692</v>
       </c>
       <c r="F11" s="2">
-        <v>93568</v>
+        <v>77291</v>
       </c>
       <c r="G11" s="2">
-        <v>95643</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>0</v>
+        <v>77096</v>
+      </c>
+      <c r="H11" s="2">
+        <v>81345</v>
+      </c>
+      <c r="I11" s="2">
+        <v>82776</v>
+      </c>
+      <c r="J11" s="2">
+        <v>85684</v>
       </c>
       <c r="K11" s="2">
-        <v>82134</v>
+        <v>94531</v>
       </c>
       <c r="L11" s="2">
-        <v>95921</v>
+        <v>95762</v>
       </c>
       <c r="M11" s="2">
-        <v>87886</v>
+        <v>102300</v>
       </c>
       <c r="N11" s="2">
-        <v>118391</v>
+        <v>110947</v>
       </c>
       <c r="O11" s="2">
-        <v>135173</v>
+        <v>123111</v>
       </c>
       <c r="P11" s="2">
-        <v>143930</v>
+        <v>126003</v>
       </c>
       <c r="Q11" s="2">
-        <v>194323</v>
+        <v>143691</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1687,52 +1675,52 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>61779</v>
+        <v>366297</v>
       </c>
       <c r="D12" s="2">
-        <v>50766</v>
+        <v>291290</v>
       </c>
       <c r="E12" s="2">
-        <v>71692</v>
+        <v>402669</v>
       </c>
       <c r="F12" s="2">
-        <v>77291</v>
+        <v>409740</v>
       </c>
       <c r="G12" s="2">
-        <v>77096</v>
+        <v>414305</v>
       </c>
       <c r="H12" s="2">
-        <v>81345</v>
+        <v>417804</v>
       </c>
       <c r="I12" s="2">
-        <v>82776</v>
+        <v>403172</v>
       </c>
       <c r="J12" s="2">
-        <v>85684</v>
+        <v>394083</v>
       </c>
       <c r="K12" s="2">
-        <v>94531</v>
+        <v>428650</v>
       </c>
       <c r="L12" s="2">
-        <v>95762</v>
+        <v>432071</v>
       </c>
       <c r="M12" s="2">
-        <v>102300</v>
+        <v>432360</v>
       </c>
       <c r="N12" s="2">
-        <v>110947</v>
+        <v>442299</v>
       </c>
       <c r="O12" s="2">
-        <v>123111</v>
+        <v>476961</v>
       </c>
       <c r="P12" s="2">
-        <v>126003</v>
+        <v>497410</v>
       </c>
       <c r="Q12" s="2">
-        <v>143691</v>
+        <v>542261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1740,52 +1728,52 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>366297</v>
+        <v>1833</v>
       </c>
       <c r="D13" s="2">
-        <v>291290</v>
+        <v>1404</v>
       </c>
       <c r="E13" s="2">
-        <v>402669</v>
+        <v>2257</v>
       </c>
       <c r="F13" s="2">
-        <v>409740</v>
+        <v>2177</v>
       </c>
       <c r="G13" s="2">
-        <v>414305</v>
+        <v>2298</v>
       </c>
       <c r="H13" s="2">
-        <v>417804</v>
+        <v>2695</v>
       </c>
       <c r="I13" s="2">
-        <v>403172</v>
+        <v>2427</v>
       </c>
       <c r="J13" s="2">
-        <v>394083</v>
+        <v>2033</v>
       </c>
       <c r="K13" s="2">
-        <v>428650</v>
+        <v>2461</v>
       </c>
       <c r="L13" s="2">
-        <v>432071</v>
+        <v>2249</v>
       </c>
       <c r="M13" s="2">
-        <v>432360</v>
+        <v>2543</v>
       </c>
       <c r="N13" s="2">
-        <v>442299</v>
+        <v>2703</v>
       </c>
       <c r="O13" s="2">
-        <v>476961</v>
+        <v>3452</v>
       </c>
       <c r="P13" s="2">
-        <v>497410</v>
+        <v>3310</v>
       </c>
       <c r="Q13" s="2">
-        <v>542261</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1793,52 +1781,52 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>1833</v>
+        <v>2482</v>
       </c>
       <c r="D14" s="2">
-        <v>1404</v>
+        <v>2093</v>
       </c>
       <c r="E14" s="2">
-        <v>2257</v>
+        <v>3086</v>
       </c>
       <c r="F14" s="2">
-        <v>2177</v>
+        <v>3210</v>
       </c>
       <c r="G14" s="2">
-        <v>2298</v>
+        <v>3519</v>
       </c>
       <c r="H14" s="2">
-        <v>2695</v>
+        <v>4224</v>
       </c>
       <c r="I14" s="2">
-        <v>2427</v>
+        <v>4234</v>
       </c>
       <c r="J14" s="2">
-        <v>2033</v>
+        <v>3841</v>
       </c>
       <c r="K14" s="2">
-        <v>2461</v>
+        <v>4472</v>
       </c>
       <c r="L14" s="2">
-        <v>2249</v>
+        <v>4436</v>
       </c>
       <c r="M14" s="2">
-        <v>2543</v>
+        <v>4287</v>
       </c>
       <c r="N14" s="2">
-        <v>2703</v>
+        <v>4239</v>
       </c>
       <c r="O14" s="2">
-        <v>3452</v>
+        <v>4671</v>
       </c>
       <c r="P14" s="2">
-        <v>3310</v>
+        <v>4267</v>
       </c>
       <c r="Q14" s="2">
-        <v>3355</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1846,105 +1834,105 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>2482</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2093</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3086</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3210</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3519</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4224</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4234</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3841</v>
+        <v>1036</v>
+      </c>
+      <c r="D15">
+        <v>534</v>
+      </c>
+      <c r="E15">
+        <v>792</v>
+      </c>
+      <c r="F15">
+        <v>754</v>
+      </c>
+      <c r="G15">
+        <v>793</v>
+      </c>
+      <c r="H15">
+        <v>882</v>
+      </c>
+      <c r="I15">
+        <v>906</v>
+      </c>
+      <c r="J15">
+        <v>926</v>
       </c>
       <c r="K15" s="2">
-        <v>4472</v>
-      </c>
-      <c r="L15" s="2">
-        <v>4436</v>
+        <v>1023</v>
+      </c>
+      <c r="L15">
+        <v>926</v>
       </c>
       <c r="M15" s="2">
-        <v>4287</v>
+        <v>1003</v>
       </c>
       <c r="N15" s="2">
-        <v>4239</v>
+        <v>1165</v>
       </c>
       <c r="O15" s="2">
-        <v>4671</v>
+        <v>1188</v>
       </c>
       <c r="P15" s="2">
-        <v>4267</v>
+        <v>1130</v>
       </c>
       <c r="Q15" s="2">
-        <v>4376</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>1036</v>
-      </c>
-      <c r="D16">
-        <v>534</v>
-      </c>
-      <c r="E16">
-        <v>792</v>
-      </c>
-      <c r="F16">
-        <v>754</v>
-      </c>
-      <c r="G16">
-        <v>793</v>
-      </c>
-      <c r="H16">
-        <v>882</v>
-      </c>
-      <c r="I16">
-        <v>906</v>
-      </c>
-      <c r="J16">
-        <v>926</v>
+        <v>4234</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3493</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4494</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4922</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4642</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4857</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4842</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5238</v>
       </c>
       <c r="K16" s="2">
-        <v>1023</v>
-      </c>
-      <c r="L16">
-        <v>926</v>
+        <v>5397</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5090</v>
       </c>
       <c r="M16" s="2">
-        <v>1003</v>
+        <v>5511</v>
       </c>
       <c r="N16" s="2">
-        <v>1165</v>
+        <v>5741</v>
       </c>
       <c r="O16" s="2">
-        <v>1188</v>
+        <v>6236</v>
       </c>
       <c r="P16" s="2">
-        <v>1130</v>
+        <v>6914</v>
       </c>
       <c r="Q16" s="2">
-        <v>1228</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1952,52 +1940,52 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>4234</v>
+        <v>26736</v>
       </c>
       <c r="D17" s="2">
-        <v>3493</v>
+        <v>19681</v>
       </c>
       <c r="E17" s="2">
-        <v>4494</v>
+        <v>26386</v>
       </c>
       <c r="F17" s="2">
-        <v>4922</v>
+        <v>27442</v>
       </c>
       <c r="G17" s="2">
-        <v>4642</v>
+        <v>28388</v>
       </c>
       <c r="H17" s="2">
-        <v>4857</v>
+        <v>30117</v>
       </c>
       <c r="I17" s="2">
-        <v>4842</v>
+        <v>29238</v>
       </c>
       <c r="J17" s="2">
-        <v>5238</v>
+        <v>31352</v>
       </c>
       <c r="K17" s="2">
-        <v>5397</v>
+        <v>34310</v>
       </c>
       <c r="L17" s="2">
-        <v>5090</v>
+        <v>36255</v>
       </c>
       <c r="M17" s="2">
-        <v>5511</v>
+        <v>38861</v>
       </c>
       <c r="N17" s="2">
-        <v>5741</v>
+        <v>41232</v>
       </c>
       <c r="O17" s="2">
-        <v>6236</v>
+        <v>44279</v>
       </c>
       <c r="P17" s="2">
-        <v>6914</v>
+        <v>47358</v>
       </c>
       <c r="Q17" s="2">
-        <v>7343</v>
+        <v>51529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2005,52 +1993,52 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>26736</v>
+        <v>37955</v>
       </c>
       <c r="D18" s="2">
-        <v>19681</v>
+        <v>31643</v>
       </c>
       <c r="E18" s="2">
-        <v>26386</v>
+        <v>40755</v>
       </c>
       <c r="F18" s="2">
-        <v>27442</v>
+        <v>43752</v>
       </c>
       <c r="G18" s="2">
-        <v>28388</v>
+        <v>42757</v>
       </c>
       <c r="H18" s="2">
-        <v>30117</v>
+        <v>44189</v>
       </c>
       <c r="I18" s="2">
-        <v>29238</v>
+        <v>44307</v>
       </c>
       <c r="J18" s="2">
-        <v>31352</v>
+        <v>44255</v>
       </c>
       <c r="K18" s="2">
-        <v>34310</v>
+        <v>48550</v>
       </c>
       <c r="L18" s="2">
-        <v>36255</v>
+        <v>49428</v>
       </c>
       <c r="M18" s="2">
-        <v>38861</v>
+        <v>49702</v>
       </c>
       <c r="N18" s="2">
-        <v>41232</v>
+        <v>52494</v>
       </c>
       <c r="O18" s="2">
-        <v>44279</v>
+        <v>56818</v>
       </c>
       <c r="P18" s="2">
-        <v>47358</v>
+        <v>59376</v>
       </c>
       <c r="Q18" s="2">
-        <v>51529</v>
+        <v>63698</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2061,49 +2049,49 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>37955</v>
+        <v>11668</v>
       </c>
       <c r="D19" s="2">
-        <v>31643</v>
+        <v>8442</v>
       </c>
       <c r="E19" s="2">
-        <v>40755</v>
+        <v>11232</v>
       </c>
       <c r="F19" s="2">
-        <v>43752</v>
+        <v>12021</v>
       </c>
       <c r="G19" s="2">
-        <v>42757</v>
+        <v>11922</v>
       </c>
       <c r="H19" s="2">
-        <v>44189</v>
+        <v>12705</v>
       </c>
       <c r="I19" s="2">
-        <v>44307</v>
+        <v>13807</v>
       </c>
       <c r="J19" s="2">
-        <v>44255</v>
+        <v>13433</v>
       </c>
       <c r="K19" s="2">
-        <v>48550</v>
+        <v>13926</v>
       </c>
       <c r="L19" s="2">
-        <v>49428</v>
+        <v>14143</v>
       </c>
       <c r="M19" s="2">
-        <v>49702</v>
+        <v>14775</v>
       </c>
       <c r="N19" s="2">
-        <v>52494</v>
+        <v>16026</v>
       </c>
       <c r="O19" s="2">
-        <v>56818</v>
+        <v>16903</v>
       </c>
       <c r="P19" s="2">
-        <v>59376</v>
+        <v>18079</v>
       </c>
       <c r="Q19" s="2">
-        <v>63698</v>
+        <v>19647</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2114,49 +2102,49 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>11668</v>
+        <v>13792</v>
       </c>
       <c r="D20" s="2">
-        <v>8442</v>
+        <v>10152</v>
       </c>
       <c r="E20" s="2">
-        <v>11232</v>
+        <v>13401</v>
       </c>
       <c r="F20" s="2">
-        <v>12021</v>
+        <v>14463</v>
       </c>
       <c r="G20" s="2">
-        <v>11922</v>
+        <v>13985</v>
       </c>
       <c r="H20" s="2">
-        <v>12705</v>
+        <v>15100</v>
       </c>
       <c r="I20" s="2">
-        <v>13807</v>
+        <v>14306</v>
       </c>
       <c r="J20" s="2">
-        <v>13433</v>
+        <v>13670</v>
       </c>
       <c r="K20" s="2">
-        <v>13926</v>
+        <v>15833</v>
       </c>
       <c r="L20" s="2">
-        <v>14143</v>
+        <v>16587</v>
       </c>
       <c r="M20" s="2">
-        <v>14775</v>
+        <v>18275</v>
       </c>
       <c r="N20" s="2">
-        <v>16026</v>
+        <v>19264</v>
       </c>
       <c r="O20" s="2">
-        <v>16903</v>
+        <v>20829</v>
       </c>
       <c r="P20" s="2">
-        <v>18079</v>
+        <v>21532</v>
       </c>
       <c r="Q20" s="2">
-        <v>19647</v>
+        <v>25640</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2167,49 +2155,49 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>13792</v>
+        <v>6261</v>
       </c>
       <c r="D21" s="2">
-        <v>10152</v>
+        <v>4752</v>
       </c>
       <c r="E21" s="2">
-        <v>13401</v>
+        <v>6391</v>
       </c>
       <c r="F21" s="2">
-        <v>14463</v>
+        <v>6739</v>
       </c>
       <c r="G21" s="2">
-        <v>13985</v>
+        <v>6974</v>
       </c>
       <c r="H21" s="2">
-        <v>15100</v>
+        <v>7258</v>
       </c>
       <c r="I21" s="2">
-        <v>14306</v>
+        <v>6690</v>
       </c>
       <c r="J21" s="2">
-        <v>13670</v>
+        <v>7038</v>
       </c>
       <c r="K21" s="2">
-        <v>15833</v>
+        <v>7306</v>
       </c>
       <c r="L21" s="2">
-        <v>16587</v>
+        <v>7436</v>
       </c>
       <c r="M21" s="2">
-        <v>18275</v>
+        <v>7974</v>
       </c>
       <c r="N21" s="2">
-        <v>19264</v>
+        <v>8782</v>
       </c>
       <c r="O21" s="2">
-        <v>20829</v>
+        <v>9251</v>
       </c>
       <c r="P21" s="2">
-        <v>21532</v>
+        <v>9785</v>
       </c>
       <c r="Q21" s="2">
-        <v>25640</v>
+        <v>10234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2220,49 +2208,49 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>6261</v>
+        <v>4049</v>
       </c>
       <c r="D22" s="2">
-        <v>4752</v>
+        <v>2998</v>
       </c>
       <c r="E22" s="2">
-        <v>6391</v>
+        <v>4656</v>
       </c>
       <c r="F22" s="2">
-        <v>6739</v>
+        <v>4847</v>
       </c>
       <c r="G22" s="2">
-        <v>6974</v>
+        <v>4924</v>
       </c>
       <c r="H22" s="2">
-        <v>7258</v>
+        <v>5249</v>
       </c>
       <c r="I22" s="2">
-        <v>6690</v>
+        <v>5785</v>
       </c>
       <c r="J22" s="2">
-        <v>7038</v>
+        <v>6119</v>
       </c>
       <c r="K22" s="2">
-        <v>7306</v>
+        <v>6539</v>
       </c>
       <c r="L22" s="2">
-        <v>7436</v>
+        <v>7060</v>
       </c>
       <c r="M22" s="2">
-        <v>7974</v>
+        <v>7028</v>
       </c>
       <c r="N22" s="2">
-        <v>8782</v>
+        <v>8304</v>
       </c>
       <c r="O22" s="2">
-        <v>9251</v>
+        <v>9474</v>
       </c>
       <c r="P22" s="2">
-        <v>9785</v>
+        <v>10286</v>
       </c>
       <c r="Q22" s="2">
-        <v>10234</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2273,49 +2261,49 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>4049</v>
+        <v>68414</v>
       </c>
       <c r="D23" s="2">
-        <v>2998</v>
+        <v>53210</v>
       </c>
       <c r="E23" s="2">
-        <v>4656</v>
+        <v>67084</v>
       </c>
       <c r="F23" s="2">
-        <v>4847</v>
+        <v>66897</v>
       </c>
       <c r="G23" s="2">
-        <v>4924</v>
+        <v>66156</v>
       </c>
       <c r="H23" s="2">
-        <v>5249</v>
+        <v>69658</v>
       </c>
       <c r="I23" s="2">
-        <v>5785</v>
+        <v>76549</v>
       </c>
       <c r="J23" s="2">
-        <v>6119</v>
+        <v>74717</v>
       </c>
       <c r="K23" s="2">
-        <v>6539</v>
+        <v>78025</v>
       </c>
       <c r="L23" s="2">
-        <v>7060</v>
+        <v>75021</v>
       </c>
       <c r="M23" s="2">
-        <v>7028</v>
+        <v>78261</v>
       </c>
       <c r="N23" s="2">
-        <v>8304</v>
+        <v>83884</v>
       </c>
       <c r="O23" s="2">
-        <v>9474</v>
+        <v>95728</v>
       </c>
       <c r="P23" s="2">
-        <v>10286</v>
+        <v>97048</v>
       </c>
       <c r="Q23" s="2">
-        <v>12004</v>
+        <v>98693</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2326,366 +2314,207 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>68414</v>
+        <v>6140</v>
       </c>
       <c r="D24" s="2">
-        <v>53210</v>
+        <v>4710</v>
       </c>
       <c r="E24" s="2">
-        <v>67084</v>
+        <v>6460</v>
       </c>
       <c r="F24" s="2">
-        <v>66897</v>
+        <v>6517</v>
       </c>
       <c r="G24" s="2">
-        <v>66156</v>
+        <v>6491</v>
       </c>
       <c r="H24" s="2">
-        <v>69658</v>
+        <v>6898</v>
       </c>
       <c r="I24" s="2">
-        <v>76549</v>
+        <v>7343</v>
       </c>
       <c r="J24" s="2">
-        <v>74717</v>
+        <v>7083</v>
       </c>
       <c r="K24" s="2">
-        <v>78025</v>
+        <v>7843</v>
       </c>
       <c r="L24" s="2">
-        <v>75021</v>
+        <v>8022</v>
       </c>
       <c r="M24" s="2">
-        <v>78261</v>
+        <v>8153</v>
       </c>
       <c r="N24" s="2">
-        <v>83884</v>
+        <v>8414</v>
       </c>
       <c r="O24" s="2">
-        <v>95728</v>
+        <v>9162</v>
       </c>
       <c r="P24" s="2">
-        <v>97048</v>
+        <v>9178</v>
       </c>
       <c r="Q24" s="2">
-        <v>98693</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25">
-        <v>4946</v>
+        <v>39595</v>
       </c>
       <c r="D25" s="2">
-        <v>3334</v>
+        <v>34071</v>
       </c>
       <c r="E25" s="2">
-        <v>4198</v>
+        <v>51387</v>
       </c>
       <c r="F25" s="2">
-        <v>4885</v>
+        <v>56765</v>
       </c>
       <c r="G25" s="2">
-        <v>5656</v>
+        <v>52909</v>
       </c>
       <c r="H25" s="2">
-        <v>5568</v>
+        <v>62542</v>
       </c>
       <c r="I25" s="2">
-        <v>5370</v>
+        <v>68153</v>
       </c>
       <c r="J25" s="2">
-        <v>5021</v>
+        <v>69025</v>
       </c>
       <c r="K25" s="2">
-        <v>6231</v>
+        <v>76044</v>
       </c>
       <c r="L25" s="2">
-        <v>7277</v>
+        <v>73061</v>
       </c>
       <c r="M25" s="2">
-        <v>6381</v>
+        <v>78145</v>
       </c>
       <c r="N25" s="2">
-        <v>6211</v>
+        <v>85098</v>
       </c>
       <c r="O25" s="2">
-        <v>6688</v>
+        <v>93508</v>
       </c>
       <c r="P25" s="2">
-        <v>6850</v>
+        <v>92274</v>
       </c>
       <c r="Q25" s="2">
-        <v>7403</v>
+        <v>98650</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
-        <v>1196</v>
-      </c>
-      <c r="D26">
-        <v>959</v>
+        <v>8348</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7309</v>
       </c>
       <c r="E26" s="2">
-        <v>1599</v>
+        <v>10122</v>
       </c>
       <c r="F26" s="2">
-        <v>1462</v>
+        <v>10786</v>
       </c>
       <c r="G26" s="2">
-        <v>1435</v>
+        <v>10756</v>
       </c>
       <c r="H26" s="2">
-        <v>1445</v>
+        <v>11272</v>
       </c>
       <c r="I26" s="2">
-        <v>1489</v>
+        <v>11601</v>
       </c>
       <c r="J26" s="2">
-        <v>1491</v>
+        <v>10870</v>
       </c>
       <c r="K26" s="2">
-        <v>1460</v>
+        <v>12190</v>
       </c>
       <c r="L26" s="2">
-        <v>1306</v>
+        <v>12558</v>
       </c>
       <c r="M26" s="2">
-        <v>1389</v>
+        <v>14301</v>
       </c>
       <c r="N26" s="2">
-        <v>1420</v>
+        <v>15092</v>
       </c>
       <c r="O26" s="2">
-        <v>1673</v>
+        <v>16760</v>
       </c>
       <c r="P26" s="2">
-        <v>1685</v>
+        <v>16622</v>
       </c>
       <c r="Q26" s="2">
-        <v>1805</v>
+        <v>17575</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27">
-        <v>6140</v>
+        <v>5486</v>
       </c>
       <c r="D27" s="2">
-        <v>4710</v>
+        <v>5712</v>
       </c>
       <c r="E27" s="2">
-        <v>6460</v>
+        <v>6804</v>
       </c>
       <c r="F27" s="2">
-        <v>6517</v>
+        <v>6205</v>
       </c>
       <c r="G27" s="2">
-        <v>6491</v>
+        <v>5937</v>
       </c>
       <c r="H27" s="2">
-        <v>6898</v>
+        <v>5555</v>
       </c>
       <c r="I27" s="2">
-        <v>7343</v>
+        <v>5267</v>
       </c>
       <c r="J27" s="2">
-        <v>7083</v>
+        <v>4570</v>
       </c>
       <c r="K27" s="2">
-        <v>7843</v>
+        <v>4843</v>
       </c>
       <c r="L27" s="2">
-        <v>8022</v>
+        <v>4770</v>
       </c>
       <c r="M27" s="2">
-        <v>8153</v>
+        <v>4399</v>
       </c>
       <c r="N27" s="2">
-        <v>8414</v>
+        <v>4436</v>
       </c>
       <c r="O27" s="2">
-        <v>9162</v>
+        <v>4610</v>
       </c>
       <c r="P27" s="2">
-        <v>9178</v>
+        <v>5000</v>
       </c>
       <c r="Q27" s="2">
-        <v>9836</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>39595</v>
-      </c>
-      <c r="D28" s="2">
-        <v>34071</v>
-      </c>
-      <c r="E28" s="2">
-        <v>51387</v>
-      </c>
-      <c r="F28" s="2">
-        <v>56765</v>
-      </c>
-      <c r="G28" s="2">
-        <v>52909</v>
-      </c>
-      <c r="H28" s="2">
-        <v>62542</v>
-      </c>
-      <c r="I28" s="2">
-        <v>68153</v>
-      </c>
-      <c r="J28" s="2">
-        <v>69025</v>
-      </c>
-      <c r="K28" s="2">
-        <v>76044</v>
-      </c>
-      <c r="L28" s="2">
-        <v>73061</v>
-      </c>
-      <c r="M28" s="2">
-        <v>78145</v>
-      </c>
-      <c r="N28" s="2">
-        <v>85098</v>
-      </c>
-      <c r="O28" s="2">
-        <v>93508</v>
-      </c>
-      <c r="P28" s="2">
-        <v>92274</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>98650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>8348</v>
-      </c>
-      <c r="D29" s="2">
-        <v>7309</v>
-      </c>
-      <c r="E29" s="2">
-        <v>10122</v>
-      </c>
-      <c r="F29" s="2">
-        <v>10786</v>
-      </c>
-      <c r="G29" s="2">
-        <v>10756</v>
-      </c>
-      <c r="H29" s="2">
-        <v>11272</v>
-      </c>
-      <c r="I29" s="2">
-        <v>11601</v>
-      </c>
-      <c r="J29" s="2">
-        <v>10870</v>
-      </c>
-      <c r="K29" s="2">
-        <v>12190</v>
-      </c>
-      <c r="L29" s="2">
-        <v>12558</v>
-      </c>
-      <c r="M29" s="2">
-        <v>14301</v>
-      </c>
-      <c r="N29" s="2">
-        <v>15092</v>
-      </c>
-      <c r="O29" s="2">
-        <v>16760</v>
-      </c>
-      <c r="P29" s="2">
-        <v>16622</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>17575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>5486</v>
-      </c>
-      <c r="D30" s="2">
-        <v>5712</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6804</v>
-      </c>
-      <c r="F30" s="2">
-        <v>6205</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5937</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5555</v>
-      </c>
-      <c r="I30" s="2">
-        <v>5267</v>
-      </c>
-      <c r="J30" s="2">
-        <v>4570</v>
-      </c>
-      <c r="K30" s="2">
-        <v>4843</v>
-      </c>
-      <c r="L30" s="2">
-        <v>4770</v>
-      </c>
-      <c r="M30" s="2">
-        <v>4399</v>
-      </c>
-      <c r="N30" s="2">
-        <v>4436</v>
-      </c>
-      <c r="O30" s="2">
-        <v>4610</v>
-      </c>
-      <c r="P30" s="2">
-        <v>5000</v>
-      </c>
-      <c r="Q30" s="2">
         <v>5133</v>
       </c>
     </row>
